--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2450188.65416033</v>
+        <v>2447644.867414874</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651802</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651802</v>
+        <v>25.05136187242564</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.81680664074882</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>212.2947308627103</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>85.2439374983434</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807545</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642668</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545278323952</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>204.8595767146587</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718862</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="V4" t="n">
-        <v>163.9243696923144</v>
+        <v>225.6838667326808</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.2085323732919</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>97.26234557100793</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.80600129371589</v>
+        <v>50.06632887147386</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.14908698299512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>21.78155647019758</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>295.6135209514321</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.5207846920241</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>29.04795685916117</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576151</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>244.2379932588496</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338606</v>
       </c>
     </row>
     <row r="17">
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>102.7111628144459</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>51.36569740310382</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>203.7428910438519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.52079624060383</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>55.52079624060293</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609949</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="C2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="D2" t="n">
-        <v>560.1026204055295</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="E2" t="n">
-        <v>294.0593731679737</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="F2" t="n">
-        <v>287.1138724187703</v>
+        <v>312.4182783505171</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121442</v>
+        <v>287.1138724187741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.15993901467482</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935561</v>
+        <v>141.9970572935591</v>
       </c>
       <c r="L2" t="n">
-        <v>294.071473595997</v>
+        <v>294.0714735960019</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795973</v>
+        <v>494.9530007796044</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670321</v>
+        <v>703.6988094670414</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288942</v>
+        <v>887.4762960289054</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108067</v>
+        <v>1009.82512810808</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060735</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060735</v>
       </c>
       <c r="S2" t="n">
-        <v>1040.584989726631</v>
+        <v>1053.531259060735</v>
       </c>
       <c r="T2" t="n">
-        <v>826.1458676430852</v>
+        <v>839.0921369771892</v>
       </c>
       <c r="U2" t="n">
-        <v>826.1458676430852</v>
+        <v>585.4070263372799</v>
       </c>
       <c r="V2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="W2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="X2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.1458676430852</v>
+        <v>319.3637790997206</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.854708022503</v>
+        <v>253.7101705263938</v>
       </c>
       <c r="C3" t="n">
-        <v>202.854708022503</v>
+        <v>253.7101705263938</v>
       </c>
       <c r="D3" t="n">
-        <v>202.854708022503</v>
+        <v>253.7101705263938</v>
       </c>
       <c r="E3" t="n">
-        <v>202.854708022503</v>
+        <v>253.7101705263938</v>
       </c>
       <c r="F3" t="n">
-        <v>202.854708022503</v>
+        <v>107.1756125532787</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129062</v>
+        <v>107.1756125532787</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371039</v>
+        <v>95.6566500137117</v>
       </c>
       <c r="L3" t="n">
-        <v>242.269306043317</v>
+        <v>338.1990901420779</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299032</v>
+        <v>528.6460126286656</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779522</v>
+        <v>738.5421433767165</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760982</v>
+        <v>908.3363012748639</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.27801606222</v>
+        <v>1025.278016062233</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060735</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060721</v>
+        <v>1035.156931155253</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060721</v>
+        <v>886.5091315712243</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060721</v>
+        <v>689.6975574313157</v>
       </c>
       <c r="U3" t="n">
-        <v>825.3953723613319</v>
+        <v>461.5616707319266</v>
       </c>
       <c r="V3" t="n">
-        <v>825.3953723613319</v>
+        <v>461.5616707319266</v>
       </c>
       <c r="W3" t="n">
-        <v>618.4665069929897</v>
+        <v>461.5616707319266</v>
       </c>
       <c r="X3" t="n">
-        <v>410.6150067874569</v>
+        <v>253.7101705263938</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.854708022503</v>
+        <v>253.7101705263938</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="C4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="D4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="E4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="F4" t="n">
-        <v>189.6405049345414</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121442</v>
+        <v>21.0706251812147</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481198</v>
+        <v>126.3277805481207</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250485</v>
+        <v>316.5471352504866</v>
       </c>
       <c r="M4" t="n">
-        <v>527.495897157082</v>
+        <v>527.4958971570845</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210594</v>
+        <v>738.0340231670223</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376789</v>
+        <v>917.2498138836426</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351421</v>
+        <v>1047.079201097385</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060721</v>
+        <v>1053.531259060735</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060721</v>
+        <v>924.7153898972136</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778287822</v>
+        <v>924.7153898972136</v>
       </c>
       <c r="T4" t="n">
-        <v>621.2639235784754</v>
+        <v>924.7153898972136</v>
       </c>
       <c r="U4" t="n">
-        <v>355.2206763409196</v>
+        <v>658.6721426596544</v>
       </c>
       <c r="V4" t="n">
-        <v>189.6405049345414</v>
+        <v>430.7086409094717</v>
       </c>
       <c r="W4" t="n">
-        <v>189.6405049345414</v>
+        <v>430.7086409094717</v>
       </c>
       <c r="X4" t="n">
-        <v>189.6405049345414</v>
+        <v>202.7190900114544</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.6405049345414</v>
+        <v>202.7190900114544</v>
       </c>
     </row>
     <row r="5">
@@ -4550,7 +4550,7 @@
         <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>157.477756798422</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
         <v>150.5322560492186</v>
@@ -4565,10 +4565,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515903</v>
@@ -4577,10 +4577,10 @@
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>956.6107264999559</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>690.233069932778</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>690.233069932778</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>635.868727793104</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>461.415698511977</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4812888507257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507257</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,22 +4647,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>287.8512331313449</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>478.4519222278687</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4677,19 +4677,19 @@
         <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413019</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>709.4101432413019</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="W6" t="n">
-        <v>709.4101432413019</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="X6" t="n">
-        <v>709.4101432413019</v>
+        <v>246.1221890463726</v>
       </c>
       <c r="Y6" t="n">
-        <v>635.868727793104</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>810.5537600342748</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C7" t="n">
-        <v>641.6175771063679</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D7" t="n">
-        <v>491.5009376940322</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="E7" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>343.5878441116391</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4726,19 +4726,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.5537600342748</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1500.227517577121</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C8" t="n">
-        <v>1131.265000636709</v>
+        <v>495.8986097850365</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.265000636709</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.265000636709</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>720.2790958471016</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816104</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872951</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923567</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230824</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.227517577121</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.227517577121</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y8" t="n">
-        <v>1500.227517577121</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4863,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103101012</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687202</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284148</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460311</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220355</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962182</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1607.104749509688</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784819</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784819</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784819</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.884232784819</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.894681886802</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.102102743272</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,7 +5303,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>172.3490191411138</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1441.680810158897</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1152.263640121936</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784063</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,16 +5540,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1652.71788640035</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639637</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2395.078540748843</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>333.5348535420919</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6449060441816</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>186.6449060441816</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2387.388512467612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122182</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327634</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048565</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925207</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101276</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122173</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>149.8982754122173</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630031</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877305</v>
+        <v>60.59164343877231</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.10913542307955</v>
+        <v>2.109135423078953</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>96.89877181692745</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>170.9799771939158</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719662</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>45.78351343583179</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544039</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5911984018983</v>
+        <v>54.95314511566534</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>7.899650064978374</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046951749</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>64.53565828418198</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.6605885985408</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.3947522799763</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>48.3947522799761</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>84.77391660562006</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>84.77391660562097</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>817500.8389887003</v>
+        <v>817500.8389887004</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>823394.3232049448</v>
+        <v>823394.3232049451</v>
       </c>
     </row>
     <row r="5">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597551</v>
       </c>
       <c r="M2" t="n">
         <v>625538.614759755</v>
@@ -26350,10 +26350,10 @@
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909292</v>
+        <v>679702.4124909332</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680944494</v>
+        <v>366.4703680905156</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059454</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642064</v>
+        <v>68912.53318642174</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774272741</v>
+        <v>85.20559774185234</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674032</v>
+        <v>253116.5477674021</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181815</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26451,13 +26451,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181822</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557687</v>
+        <v>63021.46164557715</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359533.0502590898</v>
+        <v>-359533.0502590923</v>
       </c>
       <c r="C6" t="n">
-        <v>319876.333165124</v>
+        <v>319876.333165128</v>
       </c>
       <c r="D6" t="n">
-        <v>9494.27813133056</v>
+        <v>9494.278131332627</v>
       </c>
       <c r="E6" t="n">
-        <v>4543.723129485632</v>
+        <v>4508.985204048149</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540295</v>
+        <v>511994.426828594</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540295</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540294</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540293</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="J6" t="n">
-        <v>443116.6315676087</v>
+        <v>443081.8936421722</v>
       </c>
       <c r="K6" t="n">
-        <v>511943.9591562868</v>
+        <v>511909.2212308518</v>
       </c>
       <c r="L6" t="n">
-        <v>416646.5186164601</v>
+        <v>416611.7806910241</v>
       </c>
       <c r="M6" t="n">
-        <v>379421.871025103</v>
+        <v>379387.1330996673</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540295</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540297</v>
+        <v>511994.426828594</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.770023296054</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296051</v>
+        <v>613.770023296054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734273423</v>
+        <v>0.2849904734242727</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480632</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.331065236322388</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651835</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.3310652363226154</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651802</v>
+        <v>263.3828147651838</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363259123</v>
+        <v>0.331065236322388</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550273</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070816</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708752</v>
+        <v>387.7839584636298</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>50.82255116533431</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>115.3507887739391</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139.97699397722</v>
+        <v>152.7938006179686</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495115</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>14.24130304666333</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807523</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.83540644626089</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825658</v>
+        <v>15.10853304825621</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>22.87584376934711</v>
+        <v>22.87584376934359</v>
       </c>
       <c r="V4" t="n">
-        <v>88.2132736315136</v>
+        <v>26.45377659114723</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>174.5253092901887</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>115.0273700322153</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>132.8766944835885</v>
+        <v>155.6163669058305</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>111.907260753153</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.4355663690997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>332.9014851504854</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>115.9341818215219</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.311195489913189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>72.50961556041246</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-4.551261486021622e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8.722622624190989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.4674171790796</v>
+        <v>2.467417179079612</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524896</v>
+        <v>25.26943618524908</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646638</v>
+        <v>95.12510079646684</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029074</v>
+        <v>209.4189488029084</v>
       </c>
       <c r="K2" t="n">
-        <v>313.864717993347</v>
+        <v>313.8647179933484</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876043</v>
+        <v>389.3769364876062</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460612</v>
+        <v>433.2568667460633</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061211</v>
+        <v>440.2674158061233</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316483</v>
+        <v>415.7320362316503</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231206</v>
+        <v>354.8176746231223</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973336</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753591</v>
+        <v>154.9938943753598</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827644</v>
+        <v>56.22626896827672</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142101</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197393374326368</v>
+        <v>0.1973933743263689</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410374</v>
+        <v>1.32018457841038</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148967</v>
+        <v>12.75020369148973</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333963</v>
+        <v>45.45372342333985</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435877</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970822</v>
+        <v>213.1808579970832</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289718</v>
+        <v>286.6479717289732</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963477</v>
+        <v>334.5046626963494</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682314</v>
+        <v>343.3580057682331</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466121</v>
+        <v>314.1054948466136</v>
       </c>
       <c r="P3" t="n">
-        <v>252.097351643995</v>
+        <v>252.0973516439962</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774373</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621605</v>
+        <v>81.96724952621645</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564893</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311988</v>
+        <v>5.321270296312013</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962989</v>
+        <v>0.08685424857963031</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665015</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058005</v>
+        <v>9.840443980058051</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923504</v>
+        <v>33.2844465092352</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2506470684162</v>
+        <v>78.25064706841657</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823536</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.550737065306</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195706</v>
+        <v>173.4956805195714</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187284</v>
+        <v>169.3703410187292</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148697</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005032</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770371</v>
+        <v>92.67927351770415</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528307</v>
+        <v>49.76568090528331</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735294</v>
+        <v>19.28847761735303</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477769</v>
+        <v>4.729047720477792</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354607</v>
+        <v>0.06037082196354636</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606969</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811867</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>258.385831806051</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296252</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936921</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>679.7882761221643</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>528.6300513467554</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,13 +33737,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>553.392502062293</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745686</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>545.9074025036812</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123218</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951691</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>338.9915131655318</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622112</v>
+        <v>28.37304427622215</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836642</v>
+        <v>93.7748669483679</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176171</v>
+        <v>153.610521517619</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187884</v>
+        <v>202.9106335187905</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095302</v>
+        <v>210.8543522095324</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099616</v>
+        <v>185.6338248099636</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678511</v>
+        <v>123.5846788678528</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288285</v>
+        <v>44.14760702288416</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272321</v>
+        <v>75.33941902272423</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490976</v>
+        <v>244.9923637660264</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743294</v>
+        <v>192.3706287743311</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848981</v>
+        <v>212.0162936848998</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021677</v>
+        <v>171.5092504021691</v>
       </c>
       <c r="P3" t="n">
-        <v>215.0217160465878</v>
+        <v>118.122944229666</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141499</v>
+        <v>28.53862929141582</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564701</v>
+        <v>106.3203589564707</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256214</v>
+        <v>192.1407623256221</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814112</v>
+        <v>213.079557481412</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397957</v>
+        <v>212.6647737474119</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289086</v>
+        <v>181.0260512289094</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653961</v>
+        <v>131.1407951653967</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615454478</v>
+        <v>6.517230266009761</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>194.0102040017881</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>553.5225306839401</v>
+        <v>421.8844773977058</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>134.6960534463666</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451998</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096334</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>120.5443928316921</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.32561221529492</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103587</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>548.4465640388311</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>397.2883392634221</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>414.8381222824188</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790191</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7733685816629</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>18.8644819263003</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>199.0097390795103</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
